--- a/report_folder/report_4.2.a_bil.xlsx
+++ b/report_folder/report_4.2.a_bil.xlsx
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>

--- a/report_folder/report_4.2.a_bil.xlsx
+++ b/report_folder/report_4.2.a_bil.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>90.0% der Karten</t>
+          <t>80.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>BB2.0 - Lessons Learned</t>
+          <t>Informationen beschaffen für den Durchlauf mit dem Gastronomiezweig 💩</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>BB 2.0 - Vorabrecherche</t>
+          <t>BB 2.0 - Kriterien für Bewertung/Auswahl von Partnern 💩</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>BB 2.0 - Ziele und Werte definieren</t>
+          <t>BB 2.0 - Risikobewertung 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Informationen beschaffen für den Durchlauf mit dem Gastronomiezweig 💩</t>
+          <t>BB 2.0 - Kostenplan 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(50.0%)</t>
+          <t>(40.0%)</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4586,8 +4586,13 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nina Stallmann</t>
+        </is>
+      </c>
       <c r="C39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4601,7 +4606,7 @@
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
@@ -4611,11 +4616,11 @@
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -4629,8 +4634,13 @@
       </c>
     </row>
     <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Nina Stallmann</t>
+        </is>
+      </c>
       <c r="F43" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4653,8 +4663,13 @@
           <t>1.</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Marie-Sophie Braun</t>
+        </is>
+      </c>
       <c r="C48" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4678,8 +4693,11 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Aktivste Helfer</t>
-        </is>
+          <t>Jacob Escherich</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4691,8 +4709,13 @@
       <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
+      </c>
       <c r="F51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4733,11 +4756,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4745,7 +4768,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4758,7 +4781,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4804,7 +4827,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="35" t="n">
         <v>0</v>
@@ -4844,7 +4867,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>

--- a/report_folder/report_4.2.a_bil.xlsx
+++ b/report_folder/report_4.2.a_bil.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>80.0% der Karten</t>
+          <t>75.0% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Bildung Bleibt: Wie könnte ein Kompaktkurs aussehen?</t>
+          <t>Video für Rotary Saarbrücken ⭐️</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Informationen beschaffen für den Durchlauf mit dem Gastronomiezweig 💩</t>
+          <t>Lessons Learned</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>BB 2.0 - Kriterien für Bewertung/Auswahl von Partnern 💩</t>
+          <t>Kostenplan 💩</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>BB 2.0 - Risikobewertung 💩</t>
+          <t>Kontaktaufnahme Plant for the Planet</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>BB 2.0 - Kostenplan 💩</t>
+          <t>Definition Projektszenario 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(40.0%)</t>
+          <t>(43.8%)</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nina Stallmann</t>
+          <t>D Riveravilla</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
@@ -4636,7 +4636,7 @@
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nina Stallmann</t>
+          <t>D Riveravilla</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -4827,10 +4827,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Theresa Schmid</t>
+        </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4840,7 +4845,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="35" t="n">
         <v>0</v>

--- a/report_folder/report_4.2.a_bil.xlsx
+++ b/report_folder/report_4.2.a_bil.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>75.0% der Karten</t>
+          <t>72.2% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Video für Rotary Saarbrücken ⭐️</t>
+          <t>Kostenplan 💩</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Lessons Learned</t>
+          <t>Definition Projektszenario 💩</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Kostenplan 💩</t>
+          <t>Bildung Bleibt: Wie könnte ein Kompaktkurs aussehen?</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Kontaktaufnahme Plant for the Planet</t>
+          <t>BB 2.0 Digitalisierung von Stakeholdern 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Definition Projektszenario 💩</t>
+          <t>Workshop 19.07.20 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(43.8%)</t>
+          <t>(44.4%)</t>
         </is>
       </c>
     </row>
@@ -4528,11 +4528,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pavel Tolkach</t>
+          <t>Andreas Kindsmueller</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D Riveravilla</t>
+          <t>Pavel Tolkach</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
@@ -4596,21 +4596,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -4626,17 +4626,17 @@
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pavel Tolkach</t>
+          <t>Andreas Kindsmueller</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>D Riveravilla</t>
+          <t>Pavel Tolkach</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4663,13 +4663,8 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Marie-Sophie Braun</t>
-        </is>
-      </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4693,11 +4688,8 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Jacob Escherich</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>Aktivste Helfer</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4709,13 +4701,8 @@
       <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="F51" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4756,11 +4743,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>x</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4768,7 +4755,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4781,7 +4768,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4827,7 +4814,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
